--- a/StructureDefinition-sd-body-weight.xlsx
+++ b/StructureDefinition-sd-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:29:02+00:00</t>
+    <t>2022-03-18T11:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-body-weight.xlsx
+++ b/StructureDefinition-sd-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:37:05+00:00</t>
+    <t>2022-03-18T11:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-body-weight.xlsx
+++ b/StructureDefinition-sd-body-weight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:44:19+00:00</t>
+    <t>2022-03-18T11:45:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
